--- a/iot_warsztaty/czujniki/temp_tabelka.xlsx
+++ b/iot_warsztaty/czujniki/temp_tabelka.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasiu\OneDrive\Dokumenty\!ruzyne takie\Studia\2022PBL Moduły i systemy internetu rzeczy projekt\pbl_repo_hsh\arduino_warsztaty\Czujniki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasiu\OneDrive\Dokumenty\!ruzyne takie\Studia\2022PBL Moduły i systemy internetu rzeczy projekt\pbl_repo_hsh\iot_warsztaty\czujniki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33597544-A07B-4969-A4FF-AD68EB73688C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9645733-8943-4310-B792-C6B818057CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B9533E36-B50F-40C8-B12D-03841A7B30C8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Czujniki</t>
   </si>
@@ -57,13 +57,25 @@
   </si>
   <si>
     <t>26*C</t>
+  </si>
+  <si>
+    <t>DT22</t>
+  </si>
+  <si>
+    <t>*Wilgotność</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>25.50*C~26.60*C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +87,15 @@
     <font>
       <b/>
       <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -102,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -114,6 +135,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -430,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448FC9C3-3A1E-43FC-82B5-ABEE5B4A1522}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,7 +468,7 @@
     <col min="1" max="4" width="41.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -451,8 +478,11 @@
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -462,28 +492,43 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.7402777777777777</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.39100000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -493,6 +538,7 @@
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/iot_warsztaty/czujniki/temp_tabelka.xlsx
+++ b/iot_warsztaty/czujniki/temp_tabelka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasiu\OneDrive\Dokumenty\!ruzyne takie\Studia\2022PBL Moduły i systemy internetu rzeczy projekt\pbl_repo_hsh\iot_warsztaty\czujniki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9645733-8943-4310-B792-C6B818057CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F40E2B9-076D-4719-A341-B00C1242E682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B9533E36-B50F-40C8-B12D-03841A7B30C8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Czujniki</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>25.50*C~26.60*C</t>
+  </si>
+  <si>
+    <t>PT100</t>
   </si>
 </sst>
 </file>
@@ -460,7 +463,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,8 +514,12 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>

--- a/iot_warsztaty/czujniki/temp_tabelka.xlsx
+++ b/iot_warsztaty/czujniki/temp_tabelka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasiu\OneDrive\Dokumenty\!ruzyne takie\Studia\2022PBL Moduły i systemy internetu rzeczy projekt\pbl_repo_hsh\iot_warsztaty\czujniki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F40E2B9-076D-4719-A341-B00C1242E682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587538C0-3893-4A7B-9CA9-B9AC5233F365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B9533E36-B50F-40C8-B12D-03841A7B30C8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Czujniki</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>PT100</t>
+  </si>
+  <si>
+    <t>27*C</t>
   </si>
 </sst>
 </file>
@@ -460,18 +463,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448FC9C3-3A1E-43FC-82B5-ABEE5B4A1522}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="4" width="41.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -484,8 +488,11 @@
       <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -498,8 +505,11 @@
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -512,30 +522,38 @@
       <c r="D3" s="6">
         <v>0.39100000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <v>0.77083333333333337</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>

--- a/iot_warsztaty/czujniki/temp_tabelka.xlsx
+++ b/iot_warsztaty/czujniki/temp_tabelka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasiu\OneDrive\Dokumenty\!ruzyne takie\Studia\2022PBL Moduły i systemy internetu rzeczy projekt\pbl_repo_hsh\iot_warsztaty\czujniki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587538C0-3893-4A7B-9CA9-B9AC5233F365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE0B1CB-D6DC-4A33-AA95-4ED9D3B3033E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B9533E36-B50F-40C8-B12D-03841A7B30C8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Czujniki</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>27*C</t>
+  </si>
+  <si>
+    <t>24*C</t>
+  </si>
+  <si>
+    <t>23,5*C</t>
   </si>
 </sst>
 </file>
@@ -466,7 +472,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,8 +511,8 @@
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2">
-        <v>26</v>
+      <c r="E2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -522,8 +528,8 @@
       <c r="D3" s="6">
         <v>0.39100000000000001</v>
       </c>
-      <c r="E3">
-        <v>24</v>
+      <c r="E3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -536,9 +542,11 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4">
-        <v>23.5</v>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -554,15 +562,9 @@
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0.73055555555555562</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
   </sheetData>
